--- a/data/trans_orig/P1408-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1408-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>24040</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15682</v>
+        <v>16248</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34455</v>
+        <v>35411</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03463900074716624</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0225967611422038</v>
+        <v>0.02341115235505099</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04964553312300431</v>
+        <v>0.05102292890099198</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -765,19 +765,19 @@
         <v>14168</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7516</v>
+        <v>7596</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22450</v>
+        <v>22931</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02058229509073902</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01091876113887749</v>
+        <v>0.01103519901183407</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03261443514907953</v>
+        <v>0.03331277216827157</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -786,19 +786,19 @@
         <v>38208</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27277</v>
+        <v>27288</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51725</v>
+        <v>51794</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02763943064975978</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01973229994658029</v>
+        <v>0.0197403350998989</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03741808017238293</v>
+        <v>0.03746800179211109</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>669972</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>659557</v>
+        <v>658601</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>678330</v>
+        <v>677764</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9653609992528338</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9503544668769958</v>
+        <v>0.9489770710990081</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9774032388577962</v>
+        <v>0.976588847644949</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>682</v>
@@ -836,19 +836,19 @@
         <v>674183</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>665901</v>
+        <v>665420</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>680835</v>
+        <v>680755</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9794177049092609</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9673855648509203</v>
+        <v>0.966687227831728</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9890812388611223</v>
+        <v>0.9889648009881657</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1341</v>
@@ -857,19 +857,19 @@
         <v>1344155</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1330638</v>
+        <v>1330569</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1355086</v>
+        <v>1355075</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9723605693502402</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9625819198276171</v>
+        <v>0.9625319982078889</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9802677000534197</v>
+        <v>0.9802596649001013</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>49747</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36486</v>
+        <v>36349</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65289</v>
+        <v>65268</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05172240048447954</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03793470559589131</v>
+        <v>0.03779293907432497</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06788259263791363</v>
+        <v>0.06786071788793602</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -982,19 +982,19 @@
         <v>25251</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16458</v>
+        <v>16349</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37932</v>
+        <v>38106</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02607538924373117</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01699536773701202</v>
+        <v>0.01688299030230576</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03917042309641044</v>
+        <v>0.03934984151078553</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>69</v>
@@ -1003,19 +1003,19 @@
         <v>74998</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58122</v>
+        <v>58155</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>94170</v>
+        <v>93238</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03885509300189907</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03011225896215034</v>
+        <v>0.03012923396737045</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04878773060081047</v>
+        <v>0.04830520976794932</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>912053</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>896511</v>
+        <v>896532</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>925314</v>
+        <v>925451</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9482775995155205</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9321174073620866</v>
+        <v>0.9321392821120634</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9620652944041088</v>
+        <v>0.962207060925675</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>886</v>
@@ -1053,19 +1053,19 @@
         <v>943142</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>930461</v>
+        <v>930287</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>951935</v>
+        <v>952044</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9739246107562688</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9608295769035896</v>
+        <v>0.9606501584892145</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9830046322629878</v>
+        <v>0.9831170096976942</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1735</v>
@@ -1074,19 +1074,19 @@
         <v>1855195</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1836023</v>
+        <v>1836955</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1872071</v>
+        <v>1872038</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.961144906998101</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9512122693991897</v>
+        <v>0.9516947902320506</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9698877410378497</v>
+        <v>0.9698707660326296</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>23962</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15962</v>
+        <v>15785</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35236</v>
+        <v>36257</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03531537926298275</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02352523961170739</v>
+        <v>0.02326471994104499</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0519315652148972</v>
+        <v>0.05343684643123554</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1199,19 +1199,19 @@
         <v>21282</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13875</v>
+        <v>13873</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31332</v>
+        <v>31481</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03112092335400907</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02029045423203004</v>
+        <v>0.02028618893324121</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04581714147537936</v>
+        <v>0.04603505513128723</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -1220,19 +1220,19 @@
         <v>45244</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34198</v>
+        <v>32203</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60815</v>
+        <v>58878</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03320994293765574</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02510256850553483</v>
+        <v>0.02363786641357469</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04463967577932883</v>
+        <v>0.04321812089725616</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>654547</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>643273</v>
+        <v>642252</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>662547</v>
+        <v>662724</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9646846207370172</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9480684347851028</v>
+        <v>0.9465631535687645</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.976474760388293</v>
+        <v>0.9767352800589554</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>674</v>
@@ -1270,19 +1270,19 @@
         <v>662559</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>652509</v>
+        <v>652360</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>669966</v>
+        <v>669968</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9688790766459909</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9541828585246206</v>
+        <v>0.9539649448687133</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.97970954576797</v>
+        <v>0.9797138110667588</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1292</v>
@@ -1291,19 +1291,19 @@
         <v>1317106</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1301535</v>
+        <v>1303472</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1328152</v>
+        <v>1330147</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9667900570623442</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9553603242206715</v>
+        <v>0.9567818791027439</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9748974314944653</v>
+        <v>0.9763621335864253</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>38271</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27932</v>
+        <v>27976</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50368</v>
+        <v>50891</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04061790745778811</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02964464521039267</v>
+        <v>0.02969193963390466</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05345659373105294</v>
+        <v>0.05401148640225296</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -1416,19 +1416,19 @@
         <v>30834</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21308</v>
+        <v>21679</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43684</v>
+        <v>42800</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02968728953621036</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02051556625306066</v>
+        <v>0.02087331986760417</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04205983753987094</v>
+        <v>0.04120902930353009</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>74</v>
@@ -1437,19 +1437,19 @@
         <v>69105</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53980</v>
+        <v>53946</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>84862</v>
+        <v>86587</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03488664961209504</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02725127102806536</v>
+        <v>0.02723411713359022</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04284153285505632</v>
+        <v>0.04371231514117124</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>903951</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>891854</v>
+        <v>891331</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>914290</v>
+        <v>914246</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9593820925422119</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9465434062689473</v>
+        <v>0.945988513597747</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9703553547896075</v>
+        <v>0.9703080603660954</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>967</v>
@@ -1487,19 +1487,19 @@
         <v>1007778</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>994928</v>
+        <v>995812</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1017304</v>
+        <v>1016933</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9703127104637896</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9579401624601295</v>
+        <v>0.9587909706964699</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9794844337469393</v>
+        <v>0.9791266801323957</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1917</v>
@@ -1508,19 +1508,19 @@
         <v>1911729</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1895972</v>
+        <v>1894247</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1926854</v>
+        <v>1926888</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9651133503879049</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9571584671449438</v>
+        <v>0.9562876848588289</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9727487289719347</v>
+        <v>0.9727658828664099</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>136019</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>115630</v>
+        <v>116109</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>157651</v>
+        <v>159688</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04151307503473621</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03529017512606692</v>
+        <v>0.03543655544429158</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04811509746835873</v>
+        <v>0.04873670325254809</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>88</v>
@@ -1633,19 +1633,19 @@
         <v>91534</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>74657</v>
+        <v>73932</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>112872</v>
+        <v>112379</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02708762067688475</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0220932539261662</v>
+        <v>0.02187867131907256</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03340211741436706</v>
+        <v>0.03325608979554518</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>226</v>
@@ -1654,19 +1654,19 @@
         <v>227554</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>199653</v>
+        <v>200906</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>258257</v>
+        <v>257443</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03418910325589091</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02999706534123199</v>
+        <v>0.03018530992542486</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03880220591986967</v>
+        <v>0.03867985863282864</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3140524</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3118892</v>
+        <v>3116855</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3160913</v>
+        <v>3160434</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9584869249652638</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9518849025316413</v>
+        <v>0.9512632967474519</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9647098248739331</v>
+        <v>0.9645634445557084</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3209</v>
@@ -1704,19 +1704,19 @@
         <v>3287663</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3266325</v>
+        <v>3266818</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3304540</v>
+        <v>3305265</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9729123793231153</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9665978825856328</v>
+        <v>0.9667439102044547</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9779067460738338</v>
+        <v>0.9781213286809275</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6285</v>
@@ -1725,19 +1725,19 @@
         <v>6428187</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6397484</v>
+        <v>6398298</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6456088</v>
+        <v>6454835</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9658108967441091</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9611977940801302</v>
+        <v>0.9613201413671714</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9700029346587679</v>
+        <v>0.9698146900745751</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>24226</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14761</v>
+        <v>14420</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39551</v>
+        <v>37410</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03443781623967337</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02098308182268119</v>
+        <v>0.02049843939358443</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05622337931080872</v>
+        <v>0.05317937183077253</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -2090,19 +2090,19 @@
         <v>12460</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6548</v>
+        <v>6054</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21545</v>
+        <v>21596</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01787567269064517</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009394217615604447</v>
+        <v>0.008684829188361587</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03090886453151464</v>
+        <v>0.03098148144117401</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -2111,19 +2111,19 @@
         <v>36686</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25506</v>
+        <v>26577</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51035</v>
+        <v>52096</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02619469898832055</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01821206718471323</v>
+        <v>0.0189763678308664</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0364401798492003</v>
+        <v>0.0371972875967229</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>679243</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>663918</v>
+        <v>666059</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>688708</v>
+        <v>689049</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9655621837603267</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9437766206891915</v>
+        <v>0.9468206281692274</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9790169181773188</v>
+        <v>0.9795015606064156</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>639</v>
@@ -2161,19 +2161,19 @@
         <v>684590</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>675505</v>
+        <v>675454</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>690502</v>
+        <v>690996</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9821243273093548</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9690911354684854</v>
+        <v>0.969018518558826</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9906057823843956</v>
+        <v>0.9913151708116384</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1293</v>
@@ -2182,19 +2182,19 @@
         <v>1363833</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1349484</v>
+        <v>1348423</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1375013</v>
+        <v>1373942</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9738053010116795</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9635598201507997</v>
+        <v>0.9628027124032769</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9817879328152868</v>
+        <v>0.9810236321691331</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>19835</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12264</v>
+        <v>12011</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30921</v>
+        <v>31587</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01948497321200739</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01204797400880768</v>
+        <v>0.01179962593573783</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03037573794957857</v>
+        <v>0.0310302489893843</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -2307,19 +2307,19 @@
         <v>9481</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5054</v>
+        <v>4380</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17420</v>
+        <v>17847</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009224871703601747</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004917028377429149</v>
+        <v>0.004261102077368667</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01694903221437423</v>
+        <v>0.01736474868354037</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -2328,19 +2328,19 @@
         <v>29316</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19537</v>
+        <v>20049</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41272</v>
+        <v>42361</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01433023826311599</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009550098319070287</v>
+        <v>0.009800295255469925</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02017471907981671</v>
+        <v>0.02070718510287549</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>998112</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>987026</v>
+        <v>986360</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1005683</v>
+        <v>1005936</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9805150267879926</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9696242620504213</v>
+        <v>0.9689697510106156</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9879520259911923</v>
+        <v>0.9882003740642622</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>928</v>
@@ -2378,19 +2378,19 @@
         <v>1018310</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1010371</v>
+        <v>1009944</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1022737</v>
+        <v>1023411</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9907751282963982</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9830509677856261</v>
+        <v>0.9826352513164597</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.995082971622571</v>
+        <v>0.9957388979226314</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1846</v>
@@ -2399,19 +2399,19 @@
         <v>2016422</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2004466</v>
+        <v>2003377</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2026201</v>
+        <v>2025689</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.985669761736884</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9798252809201833</v>
+        <v>0.9792928148971246</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9904499016809298</v>
+        <v>0.9901997047445301</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>14476</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8406</v>
+        <v>7300</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24271</v>
+        <v>24859</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01910774943296461</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01109552292386739</v>
+        <v>0.009635187586454886</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03203575915342637</v>
+        <v>0.03281216698153964</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -2524,19 +2524,19 @@
         <v>7421</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3178</v>
+        <v>3165</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14568</v>
+        <v>15789</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009548892382933756</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0040897231746434</v>
+        <v>0.004071808032818758</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01874469156307147</v>
+        <v>0.02031532365477147</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -2545,19 +2545,19 @@
         <v>21898</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13511</v>
+        <v>13844</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35131</v>
+        <v>33450</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01426743916573702</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008803301252882324</v>
+        <v>0.009020081648688458</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02288947677753734</v>
+        <v>0.02179444862856236</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>743147</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>733352</v>
+        <v>732764</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>749217</v>
+        <v>750323</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9808922505670354</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9679642408465737</v>
+        <v>0.9671878330184603</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9889044770761326</v>
+        <v>0.9903648124135452</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>698</v>
@@ -2595,19 +2595,19 @@
         <v>769753</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>762606</v>
+        <v>761385</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>773996</v>
+        <v>774009</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9904511076170662</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9812553084369291</v>
+        <v>0.9796846763452285</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9959102768253566</v>
+        <v>0.9959281919671813</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1374</v>
@@ -2616,19 +2616,19 @@
         <v>1512899</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1499666</v>
+        <v>1501347</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1521286</v>
+        <v>1520953</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.985732560834263</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9771105232224627</v>
+        <v>0.9782055513714377</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9911966987471177</v>
+        <v>0.9909799183513116</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>15116</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8805</v>
+        <v>9143</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23769</v>
+        <v>24541</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01594987119911851</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009290207249272408</v>
+        <v>0.009647193238274638</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02507955694877634</v>
+        <v>0.02589401418903134</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -2741,19 +2741,19 @@
         <v>13105</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7448</v>
+        <v>6906</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22153</v>
+        <v>21375</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01245869584516833</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007080573416767095</v>
+        <v>0.006565533606674232</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02105972480579844</v>
+        <v>0.02032026018385996</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -2762,19 +2762,19 @@
         <v>28222</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19516</v>
+        <v>19393</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40864</v>
+        <v>40280</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01411335553801324</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009759562291269208</v>
+        <v>0.009698349897909067</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02043567634008901</v>
+        <v>0.02014350802346858</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>932623</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>923970</v>
+        <v>923198</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>938934</v>
+        <v>938596</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9840501288008815</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9749204430512236</v>
+        <v>0.9741059858109687</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9907097927507275</v>
+        <v>0.9903528067617253</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>990</v>
@@ -2812,19 +2812,19 @@
         <v>1038796</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1029748</v>
+        <v>1030526</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1044453</v>
+        <v>1044995</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9875413041548317</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.978940275194202</v>
+        <v>0.9796797398161404</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.992919426583233</v>
+        <v>0.9934344663933258</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1885</v>
@@ -2833,19 +2833,19 @@
         <v>1971418</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1958776</v>
+        <v>1959360</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1980124</v>
+        <v>1980247</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9858866444619867</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9795643236599112</v>
+        <v>0.9798564919765317</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9902404377087308</v>
+        <v>0.9903016501020909</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>73653</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55455</v>
+        <v>58010</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>91616</v>
+        <v>93657</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02149348111325351</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01618282265822354</v>
+        <v>0.01692857301287009</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02673541966862198</v>
+        <v>0.02733105396308802</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -2958,19 +2958,19 @@
         <v>42468</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31353</v>
+        <v>30713</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57800</v>
+        <v>57336</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01194961963431402</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008822198592977405</v>
+        <v>0.008641928969829404</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01626365166166996</v>
+        <v>0.01613329100467435</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>106</v>
@@ -2979,19 +2979,19 @@
         <v>116121</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>96380</v>
+        <v>95661</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>140958</v>
+        <v>141474</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01663464096945996</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01380664161697903</v>
+        <v>0.01370362052574704</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0201925782427997</v>
+        <v>0.0202664452724272</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3353126</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3335163</v>
+        <v>3333122</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3371324</v>
+        <v>3368769</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9785065188867464</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9732645803313779</v>
+        <v>0.9726689460369119</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9838171773417762</v>
+        <v>0.9830714269871298</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3255</v>
@@ -3029,19 +3029,19 @@
         <v>3511448</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3496116</v>
+        <v>3496580</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3522563</v>
+        <v>3523203</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9880503803656859</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9837363483383301</v>
+        <v>0.9838667089953257</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9911778014070226</v>
+        <v>0.9913580710301706</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6398</v>
@@ -3050,19 +3050,19 @@
         <v>6864573</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6839736</v>
+        <v>6839220</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6884314</v>
+        <v>6885033</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.98336535903054</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9798074217571998</v>
+        <v>0.9797335547275731</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9861933583830205</v>
+        <v>0.9862963794742534</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>9753</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4970</v>
+        <v>4934</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18690</v>
+        <v>18050</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01445310750799771</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007365655058233357</v>
+        <v>0.007311554397358416</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02769729933920989</v>
+        <v>0.02674872185264752</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -3415,19 +3415,19 @@
         <v>9547</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4618</v>
+        <v>4586</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17607</v>
+        <v>17814</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01418968746817688</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006863989983948888</v>
+        <v>0.006815275146164251</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02616803040380063</v>
+        <v>0.02647541349117383</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -3436,19 +3436,19 @@
         <v>19300</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11246</v>
+        <v>12488</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29548</v>
+        <v>29411</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01432158914446265</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008345161649038242</v>
+        <v>0.009266525123623637</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02192589691146994</v>
+        <v>0.02182420001919664</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>665047</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>656110</v>
+        <v>656750</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>669830</v>
+        <v>669866</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9855468924920023</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9723027006607901</v>
+        <v>0.9732512781473523</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9926343449417666</v>
+        <v>0.9926884456026415</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>657</v>
@@ -3486,19 +3486,19 @@
         <v>663292</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>655232</v>
+        <v>655025</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>668221</v>
+        <v>668253</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9858103125318232</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9738319695961993</v>
+        <v>0.9735245865088261</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.993136010016051</v>
+        <v>0.9931847248538357</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1299</v>
@@ -3507,19 +3507,19 @@
         <v>1328339</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1318091</v>
+        <v>1318228</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1336393</v>
+        <v>1335151</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9856784108555373</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.97807410308853</v>
+        <v>0.9781757999808035</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9916548383509619</v>
+        <v>0.9907334748763764</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>21722</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13173</v>
+        <v>14215</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31983</v>
+        <v>33610</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02124527538516327</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01288437327241865</v>
+        <v>0.01390329266382558</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03128174298419346</v>
+        <v>0.03287222425887299</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -3632,19 +3632,19 @@
         <v>14295</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8044</v>
+        <v>7689</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23028</v>
+        <v>22983</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01370682564421482</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007713453659236405</v>
+        <v>0.007372265594053307</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02208022699449222</v>
+        <v>0.02203687505946063</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -3653,19 +3653,19 @@
         <v>36017</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25395</v>
+        <v>25768</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49748</v>
+        <v>51433</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0174386711229792</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01229591961593843</v>
+        <v>0.01247623618693852</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0240870409715877</v>
+        <v>0.02490292882396634</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>1000709</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>990448</v>
+        <v>988821</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1009258</v>
+        <v>1008216</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9787547246148367</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9687182570158063</v>
+        <v>0.9671277757411271</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9871156267275812</v>
+        <v>0.9860967073361745</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>964</v>
@@ -3703,19 +3703,19 @@
         <v>1028618</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1019885</v>
+        <v>1019930</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1034869</v>
+        <v>1035224</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9862931743557852</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9779197730055076</v>
+        <v>0.9779631249405394</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9922865463407635</v>
+        <v>0.9926277344059472</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1894</v>
@@ -3724,19 +3724,19 @@
         <v>2029327</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2015596</v>
+        <v>2013911</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2039949</v>
+        <v>2039576</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9825613288770207</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9759129590284124</v>
+        <v>0.9750970711760333</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9877040803840615</v>
+        <v>0.9875237638130614</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>12411</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6159</v>
+        <v>6592</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21350</v>
+        <v>21808</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01634029308767368</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008109360063338244</v>
+        <v>0.008678722811077828</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02810893245552626</v>
+        <v>0.02871221645799861</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -3849,19 +3849,19 @@
         <v>13916</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7411</v>
+        <v>7451</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22453</v>
+        <v>22976</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01772737557466345</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009440013630881101</v>
+        <v>0.009491276010156077</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02860267270486248</v>
+        <v>0.029268766743368</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -3870,19 +3870,19 @@
         <v>26327</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17203</v>
+        <v>16908</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39375</v>
+        <v>38474</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01704526579076065</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.011137487836238</v>
+        <v>0.01094663833452077</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02549247806496449</v>
+        <v>0.02490954501641758</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>747141</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>738202</v>
+        <v>737744</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>753393</v>
+        <v>752960</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9836597069123263</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9718910675444739</v>
+        <v>0.9712877835420013</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9918906399366618</v>
+        <v>0.9913212771889222</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>724</v>
@@ -3920,19 +3920,19 @@
         <v>771095</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>762558</v>
+        <v>762035</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>777600</v>
+        <v>777560</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9822726244253366</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9713973272951382</v>
+        <v>0.9707312332566319</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.990559986369119</v>
+        <v>0.9905087239898439</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1409</v>
@@ -3941,19 +3941,19 @@
         <v>1518236</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1505188</v>
+        <v>1506089</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1527360</v>
+        <v>1527655</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9829547342092394</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9745075219350354</v>
+        <v>0.9750904549835823</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9888625121637615</v>
+        <v>0.9890533616654792</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>22594</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14480</v>
+        <v>14983</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33120</v>
+        <v>32204</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02409863469981879</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01544370117189197</v>
+        <v>0.01598025310094159</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03532590097072875</v>
+        <v>0.03434870868776184</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -4066,19 +4066,19 @@
         <v>7761</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3252</v>
+        <v>3327</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15490</v>
+        <v>16084</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007435223081882099</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003115818155294137</v>
+        <v>0.003187193473852681</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01484075107603766</v>
+        <v>0.01540891757626968</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -4087,19 +4087,19 @@
         <v>30355</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20221</v>
+        <v>20993</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41399</v>
+        <v>43220</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01532029955656267</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01020563270140994</v>
+        <v>0.01059522308838327</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02089443845128063</v>
+        <v>0.02181349068625061</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>914973</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>904447</v>
+        <v>905363</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>923087</v>
+        <v>922584</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9759013653001812</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9646740990292713</v>
+        <v>0.9656512913122381</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.984556298828108</v>
+        <v>0.9840197468990585</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>952</v>
@@ -4137,19 +4137,19 @@
         <v>1036018</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1028289</v>
+        <v>1027695</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1040527</v>
+        <v>1040452</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.992564776918118</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9851592489239626</v>
+        <v>0.9845910824237304</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9968841818447058</v>
+        <v>0.9968128065261475</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1860</v>
@@ -4158,19 +4158,19 @@
         <v>1950991</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1939947</v>
+        <v>1938126</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1961125</v>
+        <v>1960353</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9846797004434373</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9791055615487192</v>
+        <v>0.9781865093137491</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9897943672985899</v>
+        <v>0.9894047769116165</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>66480</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52818</v>
+        <v>51889</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>85767</v>
+        <v>84606</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01958553796096673</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01556045674316667</v>
+        <v>0.01528687877289613</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02526755917797871</v>
+        <v>0.02492546581309908</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -4283,19 +4283,19 @@
         <v>45519</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32289</v>
+        <v>32134</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60085</v>
+        <v>61488</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01284208688678322</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009109566476428365</v>
+        <v>0.009065888822046553</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01695149075146733</v>
+        <v>0.01734723536674776</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>107</v>
@@ -4304,19 +4304,19 @@
         <v>111999</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>94572</v>
+        <v>90919</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>135960</v>
+        <v>134218</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01614083174964978</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01362926335875835</v>
+        <v>0.01310288322899035</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01959394714112176</v>
+        <v>0.01934290980531278</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3327870</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3308583</v>
+        <v>3309744</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3341532</v>
+        <v>3342461</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9804144620390333</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9747324408220213</v>
+        <v>0.9750745341869009</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9844395432568332</v>
+        <v>0.9847131212271039</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3297</v>
@@ -4354,19 +4354,19 @@
         <v>3499023</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3484457</v>
+        <v>3483054</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3512253</v>
+        <v>3512408</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9871579131132168</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9830485092485326</v>
+        <v>0.9826527646332524</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9908904335235716</v>
+        <v>0.9909341111779536</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6462</v>
@@ -4375,19 +4375,19 @@
         <v>6826893</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6802932</v>
+        <v>6804674</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6844320</v>
+        <v>6847973</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9838591682503502</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9804060528588781</v>
+        <v>0.9806570901946872</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9863707366412416</v>
+        <v>0.9868971167710096</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>21978</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15049</v>
+        <v>14968</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33095</v>
+        <v>32174</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03181989309716528</v>
+        <v>0.03181989309716527</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02178825047687668</v>
+        <v>0.02166990109148702</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04791493745988925</v>
+        <v>0.04658072084340154</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -4740,19 +4740,19 @@
         <v>19679</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14248</v>
+        <v>14016</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26810</v>
+        <v>26195</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02687744652556533</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01945940534237824</v>
+        <v>0.01914243229427111</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03661676776121522</v>
+        <v>0.03577594925829979</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>73</v>
@@ -4761,19 +4761,19 @@
         <v>41658</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31109</v>
+        <v>32764</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53497</v>
+        <v>53001</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02927663334399648</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02186335399078471</v>
+        <v>0.02302617167490931</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03759729234885596</v>
+        <v>0.03724844871352156</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>668732</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>657615</v>
+        <v>658536</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>675661</v>
+        <v>675742</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9681801069028347</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9520850625401109</v>
+        <v>0.9534192791565983</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9782117495231233</v>
+        <v>0.9783300989085127</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1196</v>
@@ -4811,19 +4811,19 @@
         <v>712508</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>705377</v>
+        <v>705992</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>717939</v>
+        <v>718171</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9731225534744348</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9633832322387849</v>
+        <v>0.9642240507416999</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9805405946576219</v>
+        <v>0.9808575677057288</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1894</v>
@@ -4832,19 +4832,19 @@
         <v>1381239</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1369400</v>
+        <v>1369896</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1391788</v>
+        <v>1390133</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9707233666560035</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9624027076511441</v>
+        <v>0.9627515512864784</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9781366460092152</v>
+        <v>0.9769738283250906</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>24242</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16469</v>
+        <v>15708</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35936</v>
+        <v>33687</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02311108458297476</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0157008462853989</v>
+        <v>0.01497553982064124</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03425992551346321</v>
+        <v>0.03211609970634713</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -4957,19 +4957,19 @@
         <v>27160</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19794</v>
+        <v>19521</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40862</v>
+        <v>41339</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02539242382761892</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01850537662615844</v>
+        <v>0.01825059395658146</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03820233442165665</v>
+        <v>0.03864813492282045</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -4978,19 +4978,19 @@
         <v>51402</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39954</v>
+        <v>39736</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>66912</v>
+        <v>68374</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02426290011128175</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01885921390012651</v>
+        <v>0.01875652969895929</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03158392172581816</v>
+        <v>0.03227429810052067</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1024675</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1012981</v>
+        <v>1015230</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1032448</v>
+        <v>1033209</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9768889154170254</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9657400744865368</v>
+        <v>0.9678839002936528</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9842991537146011</v>
+        <v>0.9850244601793589</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1473</v>
@@ -5028,19 +5028,19 @@
         <v>1042458</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1028756</v>
+        <v>1028279</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1049824</v>
+        <v>1050097</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9746075761723811</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9617976655783432</v>
+        <v>0.9613518650771796</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9814946233738415</v>
+        <v>0.9817494060434185</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2406</v>
@@ -5049,19 +5049,19 @@
         <v>2067133</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2051623</v>
+        <v>2050161</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2078581</v>
+        <v>2078799</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9757370998887182</v>
+        <v>0.9757370998887183</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9684160782741819</v>
+        <v>0.9677257018994786</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9811407860998737</v>
+        <v>0.9812434703010403</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>17957</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11595</v>
+        <v>10784</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28447</v>
+        <v>27117</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02241225731397065</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01447138933373547</v>
+        <v>0.01346014406734098</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03550492126261003</v>
+        <v>0.03384506224623932</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -5174,19 +5174,19 @@
         <v>15391</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9364</v>
+        <v>9495</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24042</v>
+        <v>25170</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01902755992758571</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01157652285764192</v>
+        <v>0.01173874508654068</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02972372319223394</v>
+        <v>0.03111810179455527</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -5195,19 +5195,19 @@
         <v>33348</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23372</v>
+        <v>23773</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47001</v>
+        <v>46317</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02071187642690455</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01451618787990403</v>
+        <v>0.01476542543272254</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02919161087331736</v>
+        <v>0.0287671321188354</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>783260</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>772770</v>
+        <v>774100</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>789622</v>
+        <v>790433</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9775877426860293</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9644950787373899</v>
+        <v>0.9661549377537606</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9855286106662645</v>
+        <v>0.9865398559326589</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1022</v>
@@ -5245,19 +5245,19 @@
         <v>793468</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>784817</v>
+        <v>783689</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>799495</v>
+        <v>799364</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9809724400724144</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9702762768077661</v>
+        <v>0.9688818982054451</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9884234771423579</v>
+        <v>0.9882612549134595</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1677</v>
@@ -5266,19 +5266,19 @@
         <v>1576728</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1563075</v>
+        <v>1563759</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1586704</v>
+        <v>1586303</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9792881235730954</v>
+        <v>0.9792881235730955</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9708083891266831</v>
+        <v>0.9712328678811646</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9854838121200962</v>
+        <v>0.9852345745672776</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>25818</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18338</v>
+        <v>17688</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35144</v>
+        <v>36051</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02610593261710371</v>
+        <v>0.0261059326171037</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01854299422613501</v>
+        <v>0.01788519489754582</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03553614258272032</v>
+        <v>0.03645299325025095</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -5391,19 +5391,19 @@
         <v>33590</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25458</v>
+        <v>25098</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45497</v>
+        <v>44922</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03006511616998888</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02278665980543539</v>
+        <v>0.022464572723897</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04072313170968548</v>
+        <v>0.04020814200109996</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>87</v>
@@ -5412,19 +5412,19 @@
         <v>59408</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46472</v>
+        <v>47930</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>72322</v>
+        <v>72868</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02820608274867795</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02206457377717209</v>
+        <v>0.02275650363394511</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03433774449009908</v>
+        <v>0.03459672339468407</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>963146</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>953820</v>
+        <v>952913</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>970626</v>
+        <v>971276</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9738940673828963</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9644638574172798</v>
+        <v>0.9635470067497491</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.981457005773865</v>
+        <v>0.9821148051024543</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1507</v>
@@ -5462,19 +5462,19 @@
         <v>1083643</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1071736</v>
+        <v>1072311</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1091775</v>
+        <v>1092135</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9699348838300111</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9592768682903146</v>
+        <v>0.9597918579988999</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.977213340194565</v>
+        <v>0.9775354272761028</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2477</v>
@@ -5483,19 +5483,19 @@
         <v>2046790</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2033876</v>
+        <v>2033330</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2059726</v>
+        <v>2058268</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.971793917251322</v>
+        <v>0.9717939172513218</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.965662255509901</v>
+        <v>0.965403276605316</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9779354262228279</v>
+        <v>0.9772434963660549</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>89995</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>73135</v>
+        <v>73164</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>107929</v>
+        <v>108421</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02549567385301782</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02071917958777696</v>
+        <v>0.02072756627278089</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03057654291755827</v>
+        <v>0.0307157390589978</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>154</v>
@@ -5608,19 +5608,19 @@
         <v>95820</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>79995</v>
+        <v>79936</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>113497</v>
+        <v>116705</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02570346357286687</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02145847028966737</v>
+        <v>0.02144272346154356</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03044542360832894</v>
+        <v>0.03130584920016689</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>271</v>
@@ -5629,19 +5629,19 @@
         <v>185815</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>162827</v>
+        <v>163641</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>210702</v>
+        <v>212925</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02560240437958038</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02243502385861763</v>
+        <v>0.02254725650629072</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02903154243972755</v>
+        <v>0.02933774895067725</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3439813</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3421879</v>
+        <v>3421387</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3456673</v>
+        <v>3456644</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.974504326146982</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9694234570824417</v>
+        <v>0.9692842609410015</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.979280820412223</v>
+        <v>0.9792724337272188</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5198</v>
@@ -5679,19 +5679,19 @@
         <v>3632077</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3614400</v>
+        <v>3611192</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3647902</v>
+        <v>3647961</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9742965364271331</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9695545763916705</v>
+        <v>0.9686941507998328</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9785415297103326</v>
+        <v>0.9785572765384564</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8454</v>
@@ -5700,19 +5700,19 @@
         <v>7071891</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7047004</v>
+        <v>7044781</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7094879</v>
+        <v>7094065</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9743975956204197</v>
+        <v>0.9743975956204195</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9709684575602727</v>
+        <v>0.9706622510493225</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9775649761413825</v>
+        <v>0.9774527434937093</v>
       </c>
     </row>
     <row r="18">
